--- a/Uni_Final.xlsx
+++ b/Uni_Final.xlsx
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>10768</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="3">
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>10990</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="4">
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="AG4" t="n">
-        <v>10841</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="5">
@@ -963,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="AG5" t="n">
-        <v>10993</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="6">
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="AG6" t="n">
-        <v>3761</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="7">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>3592</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="8">
@@ -1326,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>10757</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="9">
@@ -1447,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>6560</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="10">
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>6227</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="11">
@@ -1689,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>7077</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="12">
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>2791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>5248</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="14">
@@ -2052,7 +2052,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>7077</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="15">
@@ -2173,7 +2173,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>6560</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="16">
@@ -2294,7 +2294,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>786</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="17">
@@ -2415,7 +2415,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>1127</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="18">
@@ -2536,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>6556</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="19">
@@ -2657,7 +2657,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>2791</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="20">
@@ -2778,7 +2778,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>9278</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="21">
@@ -2899,7 +2899,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>3578</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="22">
@@ -3020,7 +3020,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3141,7 +3141,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>10839</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="24">
@@ -3262,7 +3262,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>3588</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="25">
@@ -3383,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>10766</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="26">
@@ -3504,7 +3504,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>25</v>
       </c>
       <c r="AG26" t="n">
-        <v>3998</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="27">
@@ -3625,7 +3625,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>5848</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="28">
@@ -3746,7 +3746,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>10846</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="29">
@@ -3867,7 +3867,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="AG29" t="n">
-        <v>10983</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="30">
@@ -3988,7 +3988,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>29</v>
       </c>
       <c r="AG30" t="n">
-        <v>5834</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="31">
@@ -4109,7 +4109,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>30</v>
       </c>
       <c r="AG31" t="n">
-        <v>3620</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="32">
@@ -4230,7 +4230,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>31</v>
       </c>
       <c r="AG32" t="n">
-        <v>2791</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="33">
@@ -4351,7 +4351,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>32</v>
       </c>
       <c r="AG33" t="n">
-        <v>2791</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34">
@@ -4472,7 +4472,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>33</v>
       </c>
       <c r="AG34" t="n">
-        <v>10762</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="35">
@@ -4593,7 +4593,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>5742</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="36">
@@ -4714,7 +4714,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>35</v>
       </c>
       <c r="AG36" t="n">
-        <v>10991</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="37">
@@ -4835,7 +4835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>36</v>
       </c>
       <c r="AG37" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4956,7 +4956,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>37</v>
       </c>
       <c r="AG38" t="n">
-        <v>6553</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="39">
@@ -5077,7 +5077,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>38</v>
       </c>
       <c r="AG39" t="n">
-        <v>4041</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="40">
@@ -5198,7 +5198,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>39</v>
       </c>
       <c r="AG40" t="n">
-        <v>6558</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="41">
@@ -5319,7 +5319,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>40</v>
       </c>
       <c r="AG41" t="n">
-        <v>653</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42">
@@ -5440,7 +5440,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>4228</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="43">
@@ -5561,7 +5561,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>42</v>
       </c>
       <c r="AG43" t="n">
-        <v>10939</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="44">
@@ -5682,7 +5682,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43</v>
       </c>
       <c r="AG44" t="n">
-        <v>5835</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="45">
@@ -5803,7 +5803,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44</v>
       </c>
       <c r="AG45" t="n">
-        <v>4740</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="46">
@@ -5924,7 +5924,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45</v>
       </c>
       <c r="AG46" t="n">
-        <v>2791</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="47">
@@ -6045,7 +6045,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>46</v>
       </c>
       <c r="AG47" t="n">
-        <v>10989</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="48">
@@ -6166,7 +6166,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>47</v>
       </c>
       <c r="AG48" t="n">
-        <v>788</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49">
@@ -6287,7 +6287,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>48</v>
       </c>
       <c r="AG49" t="n">
-        <v>5598</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="50">
@@ -6408,7 +6408,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>49</v>
       </c>
       <c r="AG50" t="n">
-        <v>3448</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="51">
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>50</v>
       </c>
       <c r="AG51" t="n">
-        <v>4376</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="52">
@@ -6650,7 +6650,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>2791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6771,7 +6771,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>52</v>
       </c>
       <c r="AG53" t="n">
-        <v>3773</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="54">
@@ -6892,7 +6892,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>53</v>
       </c>
       <c r="AG54" t="n">
-        <v>1112</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="55">
@@ -7013,7 +7013,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>54</v>
       </c>
       <c r="AG55" t="n">
-        <v>2791</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="56">
@@ -7134,7 +7134,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>55</v>
       </c>
       <c r="AG56" t="n">
-        <v>6709</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="57">
@@ -7255,7 +7255,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>56</v>
       </c>
       <c r="AG57" t="n">
-        <v>4202</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58">
@@ -7376,7 +7376,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>57</v>
       </c>
       <c r="AG58" t="n">
-        <v>9083</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="59">
@@ -7497,7 +7497,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>58</v>
       </c>
       <c r="AG59" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="60">
@@ -7618,7 +7618,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>436</v>
+        <v>58</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>59</v>
       </c>
       <c r="AG60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -7739,7 +7739,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>60</v>
       </c>
       <c r="AG61" t="n">
-        <v>925</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="62">
@@ -7860,7 +7860,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>308</v>
+        <v>60</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>61</v>
       </c>
       <c r="AG62" t="n">
-        <v>10762</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="63">
@@ -7981,7 +7981,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>62</v>
       </c>
       <c r="AG63" t="n">
-        <v>2791</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="64">
@@ -8102,7 +8102,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>63</v>
       </c>
       <c r="AG64" t="n">
-        <v>3759</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="65">
@@ -8223,7 +8223,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>64</v>
       </c>
       <c r="AG65" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -8344,7 +8344,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>65</v>
       </c>
       <c r="AG66" t="n">
-        <v>3987</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="67">
@@ -8465,7 +8465,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>66</v>
       </c>
       <c r="AG67" t="n">
-        <v>4323</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="68">
@@ -8586,7 +8586,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>67</v>
       </c>
       <c r="AG68" t="n">
-        <v>6557</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="69">
@@ -8707,7 +8707,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>68</v>
       </c>
       <c r="AG69" t="n">
-        <v>4278</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="70">
@@ -8828,7 +8828,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>69</v>
       </c>
       <c r="AG70" t="n">
-        <v>579</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71">
@@ -8949,7 +8949,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>70</v>
       </c>
       <c r="AG71" t="n">
-        <v>3785</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="72">
@@ -9070,7 +9070,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>71</v>
       </c>
       <c r="AG72" t="n">
-        <v>857</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="73">
@@ -9191,7 +9191,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>72</v>
       </c>
       <c r="AG73" t="n">
-        <v>904</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="74">
@@ -9312,7 +9312,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>73</v>
       </c>
       <c r="AG74" t="n">
-        <v>3447</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="75">
@@ -9433,7 +9433,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>74</v>
       </c>
       <c r="AG75" t="n">
-        <v>3411</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="76">
@@ -9554,7 +9554,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="n">
-        <v>4207</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="77">
@@ -9675,7 +9675,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>76</v>
       </c>
       <c r="AG77" t="n">
-        <v>1008</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="78">
@@ -9796,7 +9796,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>77</v>
       </c>
       <c r="AG78" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -9917,7 +9917,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>78</v>
       </c>
       <c r="AG79" t="n">
-        <v>6562</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="80">
@@ -10038,7 +10038,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>79</v>
       </c>
       <c r="AG80" t="n">
-        <v>6224</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="81">
@@ -10159,7 +10159,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>80</v>
       </c>
       <c r="AG81" t="n">
-        <v>3672</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="82">
@@ -10280,7 +10280,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>81</v>
       </c>
       <c r="AG82" t="n">
-        <v>5812</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="83">
@@ -10401,7 +10401,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>82</v>
       </c>
       <c r="AG83" t="n">
-        <v>1162</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="84">
@@ -10522,7 +10522,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>83</v>
       </c>
       <c r="AG84" t="n">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="85">
@@ -10643,7 +10643,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>84</v>
       </c>
       <c r="AG85" t="n">
-        <v>5299</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="86">
@@ -10764,7 +10764,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>85</v>
       </c>
       <c r="AG86" t="n">
-        <v>3979</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="87">
@@ -10885,7 +10885,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>86</v>
       </c>
       <c r="AG87" t="n">
-        <v>5602</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="88">
@@ -11006,7 +11006,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>87</v>
       </c>
       <c r="AG88" t="n">
-        <v>2791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -11127,7 +11127,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>88</v>
       </c>
       <c r="AG89" t="n">
-        <v>6703</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="90">
@@ -11248,7 +11248,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>89</v>
       </c>
       <c r="AG90" t="n">
-        <v>6384</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="91">
@@ -11369,7 +11369,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>90</v>
       </c>
       <c r="AG91" t="n">
-        <v>3410</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="92">
@@ -11490,7 +11490,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>91</v>
       </c>
       <c r="AG92" t="n">
-        <v>4231</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="93">
@@ -11611,7 +11611,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>92</v>
       </c>
       <c r="AG93" t="n">
-        <v>1290</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="94">
@@ -11732,7 +11732,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>93</v>
       </c>
       <c r="AG94" t="n">
-        <v>6289</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="95">
@@ -11853,7 +11853,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>94</v>
       </c>
       <c r="AG95" t="n">
-        <v>888</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="96">
@@ -11974,7 +11974,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>95</v>
       </c>
       <c r="AG96" t="n">
-        <v>665</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97">
@@ -12095,7 +12095,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>96</v>
       </c>
       <c r="AG97" t="n">
-        <v>6225</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="98">
@@ -12216,7 +12216,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>97</v>
       </c>
       <c r="AG98" t="n">
-        <v>7249</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="99">
@@ -12337,7 +12337,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>98</v>
       </c>
       <c r="AG99" t="n">
-        <v>666</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100">
@@ -12458,7 +12458,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>99</v>
       </c>
       <c r="AG100" t="n">
-        <v>4185</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="101">
@@ -12579,7 +12579,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>100</v>
       </c>
       <c r="AG101" t="n">
-        <v>6228</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="102">
@@ -12700,7 +12700,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>101</v>
       </c>
       <c r="AG102" t="n">
-        <v>4020</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="103">
@@ -12821,7 +12821,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>102</v>
       </c>
       <c r="AG103" t="n">
-        <v>4425</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="104">
@@ -12942,7 +12942,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>103</v>
       </c>
       <c r="AG104" t="n">
-        <v>6637</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="105">
@@ -13063,7 +13063,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>104</v>
       </c>
       <c r="AG105" t="n">
-        <v>4353</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="106">
@@ -13184,7 +13184,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>105</v>
       </c>
       <c r="AG106" t="n">
-        <v>3661</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="107">
@@ -13305,7 +13305,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>106</v>
       </c>
       <c r="AG107" t="n">
-        <v>920</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="108">
@@ -13426,7 +13426,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>313</v>
+        <v>106</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>107</v>
       </c>
       <c r="AG108" t="n">
-        <v>10358</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="109">
@@ -13547,7 +13547,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>108</v>
       </c>
       <c r="AG109" t="n">
-        <v>4869</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="110">
@@ -13668,7 +13668,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>109</v>
       </c>
       <c r="AG110" t="n">
-        <v>6574</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="111">
@@ -13789,7 +13789,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>110</v>
       </c>
       <c r="AG111" t="n">
-        <v>5025</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="112">
@@ -13910,7 +13910,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>111</v>
       </c>
       <c r="AG112" t="n">
-        <v>867</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="113">
@@ -14031,7 +14031,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>112</v>
       </c>
       <c r="AG113" t="n">
-        <v>3883</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="114">
@@ -14152,7 +14152,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>113</v>
       </c>
       <c r="AG114" t="n">
-        <v>6661</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="115">
@@ -14273,7 +14273,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>114</v>
       </c>
       <c r="AG115" t="n">
-        <v>2791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -14394,7 +14394,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>468</v>
+        <v>114</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>115</v>
       </c>
       <c r="AG116" t="n">
-        <v>7545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -14515,7 +14515,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>116</v>
       </c>
       <c r="AG117" t="n">
-        <v>3818</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="118">
@@ -14636,7 +14636,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>117</v>
       </c>
       <c r="AG118" t="n">
-        <v>6231</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="119">
@@ -14757,7 +14757,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>118</v>
       </c>
       <c r="AG119" t="n">
-        <v>4319</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="120">
@@ -14878,7 +14878,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>119</v>
       </c>
       <c r="AG120" t="n">
-        <v>5272</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="121">
@@ -14999,7 +14999,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>120</v>
       </c>
       <c r="AG121" t="n">
-        <v>6561</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="122">
@@ -15120,7 +15120,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>121</v>
       </c>
       <c r="AG122" t="n">
-        <v>883</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="123">
@@ -15241,7 +15241,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>122</v>
       </c>
       <c r="AG123" t="n">
-        <v>4420</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="124">
@@ -15362,7 +15362,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>123</v>
       </c>
       <c r="AG124" t="n">
-        <v>6285</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="125">
@@ -15483,7 +15483,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>124</v>
       </c>
       <c r="AG125" t="n">
-        <v>3884</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="126">
@@ -15604,7 +15604,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>125</v>
       </c>
       <c r="AG126" t="n">
-        <v>841</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="127">
@@ -15725,7 +15725,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>126</v>
       </c>
       <c r="AG127" t="n">
-        <v>654</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128">
@@ -15846,7 +15846,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>127</v>
       </c>
       <c r="AG128" t="n">
-        <v>5736</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="129">
@@ -15967,7 +15967,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>128</v>
       </c>
       <c r="AG129" t="n">
-        <v>5737</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="130">
@@ -16088,7 +16088,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>129</v>
       </c>
       <c r="AG130" t="n">
-        <v>6687</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="131">
@@ -16209,7 +16209,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>130</v>
       </c>
       <c r="AG131" t="n">
-        <v>2791</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="132">
@@ -16330,7 +16330,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>396</v>
+        <v>130</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>131</v>
       </c>
       <c r="AG132" t="n">
-        <v>5026</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="133">
@@ -16451,7 +16451,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>132</v>
       </c>
       <c r="AG133" t="n">
-        <v>5103</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="134">
@@ -16572,7 +16572,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>133</v>
       </c>
       <c r="AG134" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -16693,7 +16693,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>134</v>
       </c>
       <c r="AG135" t="n">
-        <v>3794</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="136">
@@ -16814,7 +16814,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>405</v>
+        <v>134</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>135</v>
       </c>
       <c r="AG136" t="n">
-        <v>879</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="137">
@@ -16935,7 +16935,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>136</v>
       </c>
       <c r="AG137" t="n">
-        <v>900</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="138">
@@ -17056,7 +17056,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>137</v>
       </c>
       <c r="AG138" t="n">
-        <v>6584</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="139">
@@ -17177,7 +17177,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>138</v>
       </c>
       <c r="AG139" t="n">
-        <v>909</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="140">
@@ -17298,7 +17298,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>139</v>
       </c>
       <c r="AG140" t="n">
-        <v>786</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="141">
@@ -17419,7 +17419,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>140</v>
       </c>
       <c r="AG141" t="n">
-        <v>1629</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="142">
@@ -17540,7 +17540,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>141</v>
       </c>
       <c r="AG142" t="n">
-        <v>3796</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="143">
@@ -17661,7 +17661,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>142</v>
       </c>
       <c r="AG143" t="n">
-        <v>12341</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="144">
@@ -17782,7 +17782,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>143</v>
       </c>
       <c r="AG144" t="n">
-        <v>1162</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="145">
@@ -17903,7 +17903,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>144</v>
       </c>
       <c r="AG145" t="n">
-        <v>6386</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="146">
@@ -18024,7 +18024,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>390</v>
+        <v>144</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>145</v>
       </c>
       <c r="AG146" t="n">
-        <v>962</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="147">
@@ -18145,7 +18145,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>146</v>
       </c>
       <c r="AG147" t="n">
-        <v>2791</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="148">
@@ -18266,7 +18266,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>147</v>
       </c>
       <c r="AG148" t="n">
-        <v>2791</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="149">
@@ -18387,7 +18387,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>148</v>
       </c>
       <c r="AG149" t="n">
-        <v>930</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="150">
@@ -18508,7 +18508,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>149</v>
       </c>
       <c r="AG150" t="n">
-        <v>4010</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="151">
@@ -18629,7 +18629,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>150</v>
       </c>
       <c r="AG151" t="n">
-        <v>3891</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="152">
@@ -18750,7 +18750,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>151</v>
       </c>
       <c r="AG152" t="n">
-        <v>5023</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="153">
@@ -18871,7 +18871,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>152</v>
       </c>
       <c r="AG153" t="n">
-        <v>654</v>
+        <v>607</v>
       </c>
     </row>
     <row r="154">
@@ -18992,7 +18992,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>454</v>
+        <v>152</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>153</v>
       </c>
       <c r="AG154" t="n">
-        <v>6716</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="155">
@@ -19113,7 +19113,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>274</v>
+        <v>153</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>154</v>
       </c>
       <c r="AG155" t="n">
-        <v>4190</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="156">
@@ -19234,7 +19234,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>387</v>
+        <v>154</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>155</v>
       </c>
       <c r="AG156" t="n">
-        <v>10358</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="157">
@@ -19355,7 +19355,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>402</v>
+        <v>155</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>156</v>
       </c>
       <c r="AG157" t="n">
-        <v>10166</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="158">
@@ -19476,7 +19476,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>157</v>
       </c>
       <c r="AG158" t="n">
-        <v>313</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159">
@@ -19597,7 +19597,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>392</v>
+        <v>157</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>158</v>
       </c>
       <c r="AG159" t="n">
-        <v>6228</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="160">
@@ -19718,7 +19718,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>159</v>
       </c>
       <c r="AG160" t="n">
-        <v>836</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="161">
@@ -19839,7 +19839,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>160</v>
       </c>
       <c r="AG161" t="n">
-        <v>3529</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="162">
@@ -19960,7 +19960,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>161</v>
       </c>
       <c r="AG162" t="n">
-        <v>1308</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="163">
@@ -20081,7 +20081,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>162</v>
       </c>
       <c r="AG163" t="n">
-        <v>1033</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="164">
@@ -20202,7 +20202,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>163</v>
       </c>
       <c r="AG164" t="n">
-        <v>3410</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="165">
@@ -20323,7 +20323,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>164</v>
       </c>
       <c r="AG165" t="n">
-        <v>4132</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="166">
@@ -20444,7 +20444,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>165</v>
       </c>
       <c r="AG166" t="n">
-        <v>1383</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="167">
@@ -20565,7 +20565,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>166</v>
       </c>
       <c r="AG167" t="n">
-        <v>851</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="168">
@@ -20686,7 +20686,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>167</v>
       </c>
       <c r="AG168" t="n">
-        <v>1323</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="169">
@@ -20807,7 +20807,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>369</v>
+        <v>167</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>168</v>
       </c>
       <c r="AG169" t="n">
-        <v>6639</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="170">
@@ -20928,7 +20928,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>169</v>
       </c>
       <c r="AG170" t="n">
-        <v>915</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="171">
@@ -21049,7 +21049,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>325</v>
+        <v>169</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>170</v>
       </c>
       <c r="AG171" t="n">
-        <v>900</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="172">
@@ -21170,7 +21170,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>171</v>
       </c>
       <c r="AG172" t="n">
-        <v>747</v>
+        <v>837</v>
       </c>
     </row>
     <row r="173">
@@ -21291,7 +21291,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>370</v>
+        <v>171</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>172</v>
       </c>
       <c r="AG173" t="n">
-        <v>4637</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="174">
@@ -21412,7 +21412,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>173</v>
       </c>
       <c r="AG174" t="n">
-        <v>3695</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="175">
@@ -21533,7 +21533,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>174</v>
       </c>
       <c r="AG175" t="n">
-        <v>1486</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="176">
@@ -21654,7 +21654,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>175</v>
       </c>
       <c r="AG176" t="n">
-        <v>262</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177">
@@ -21775,7 +21775,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>176</v>
       </c>
       <c r="AG177" t="n">
-        <v>10702</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="178">
@@ -21896,7 +21896,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>177</v>
       </c>
       <c r="AG178" t="n">
-        <v>775</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="179">
@@ -22017,7 +22017,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>178</v>
       </c>
       <c r="AG179" t="n">
-        <v>1615</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="180">
@@ -22138,7 +22138,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>179</v>
       </c>
       <c r="AG180" t="n">
-        <v>717</v>
+        <v>837</v>
       </c>
     </row>
     <row r="181">
@@ -22259,7 +22259,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>180</v>
       </c>
       <c r="AG181" t="n">
-        <v>784</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="182">
@@ -22380,7 +22380,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>181</v>
       </c>
       <c r="AG182" t="n">
-        <v>873</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="183">
@@ -22501,7 +22501,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>182</v>
       </c>
       <c r="AG183" t="n">
-        <v>3544</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="184">
@@ -22622,7 +22622,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>183</v>
       </c>
       <c r="AG184" t="n">
-        <v>889</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="185">
@@ -22743,7 +22743,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>184</v>
       </c>
       <c r="AG185" t="n">
-        <v>5256</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="186">
@@ -22864,7 +22864,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>408</v>
+        <v>184</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>185</v>
       </c>
       <c r="AG186" t="n">
-        <v>4993</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="187">
@@ -22985,7 +22985,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>186</v>
       </c>
       <c r="AG187" t="n">
-        <v>6482</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="188">
@@ -23106,7 +23106,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>187</v>
       </c>
       <c r="AG188" t="n">
-        <v>1424</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="189">
@@ -23227,7 +23227,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>188</v>
       </c>
       <c r="AG189" t="n">
-        <v>814</v>
+        <v>908</v>
       </c>
     </row>
     <row r="190">
@@ -23348,7 +23348,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>189</v>
       </c>
       <c r="AG190" t="n">
-        <v>6384</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="191">
@@ -23469,7 +23469,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>190</v>
       </c>
       <c r="AG191" t="n">
-        <v>642</v>
+        <v>607</v>
       </c>
     </row>
     <row r="192">
@@ -23590,7 +23590,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>352</v>
+        <v>190</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>191</v>
       </c>
       <c r="AG192" t="n">
-        <v>1692</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="193">
@@ -23711,7 +23711,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>425</v>
+        <v>191</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>192</v>
       </c>
       <c r="AG193" t="n">
-        <v>1078</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="194">
@@ -23832,7 +23832,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>193</v>
       </c>
       <c r="AG194" t="n">
-        <v>887</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="195">
@@ -23953,7 +23953,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>459</v>
+        <v>193</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>194</v>
       </c>
       <c r="AG195" t="n">
-        <v>6230</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="196">
@@ -24074,7 +24074,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>326</v>
+        <v>194</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>195</v>
       </c>
       <c r="AG196" t="n">
-        <v>7871</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="197">
@@ -24195,7 +24195,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>196</v>
       </c>
       <c r="AG197" t="n">
-        <v>3477</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="198">
@@ -24316,7 +24316,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>197</v>
       </c>
       <c r="AG198" t="n">
-        <v>742</v>
+        <v>942</v>
       </c>
     </row>
     <row r="199">
@@ -24437,7 +24437,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>198</v>
       </c>
       <c r="AG199" t="n">
-        <v>792</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="200">
@@ -24558,7 +24558,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>199</v>
       </c>
       <c r="AG200" t="n">
-        <v>10979</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="201">
@@ -24679,7 +24679,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>200</v>
       </c>
       <c r="AG201" t="n">
-        <v>1596</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="202">
@@ -24800,7 +24800,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>201</v>
       </c>
       <c r="AG202" t="n">
-        <v>3083</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="203">
@@ -24921,7 +24921,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>407</v>
+        <v>201</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>202</v>
       </c>
       <c r="AG203" t="n">
-        <v>4040</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="204">
@@ -25042,7 +25042,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>203</v>
       </c>
       <c r="AG204" t="n">
-        <v>2791</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="205">
@@ -25163,7 +25163,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>434</v>
+        <v>203</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>204</v>
       </c>
       <c r="AG205" t="n">
-        <v>4372</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="206">
@@ -25284,7 +25284,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>451</v>
+        <v>204</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>205</v>
       </c>
       <c r="AG206" t="n">
-        <v>4443</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="207">
@@ -25405,7 +25405,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>452</v>
+        <v>205</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>206</v>
       </c>
       <c r="AG207" t="n">
-        <v>4506</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="208">
@@ -25526,7 +25526,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>207</v>
       </c>
       <c r="AG208" t="n">
-        <v>6383</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="209">
@@ -25647,7 +25647,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>208</v>
       </c>
       <c r="AG209" t="n">
-        <v>885</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="210">
@@ -25768,7 +25768,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>209</v>
       </c>
       <c r="AG210" t="n">
-        <v>3927</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="211">
@@ -25889,7 +25889,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>210</v>
       </c>
       <c r="AG211" t="n">
-        <v>2791</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="212">
@@ -26010,7 +26010,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>211</v>
       </c>
       <c r="AG212" t="n">
-        <v>5755</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="213">
@@ -26131,7 +26131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>410</v>
+        <v>211</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>212</v>
       </c>
       <c r="AG213" t="n">
-        <v>314</v>
+        <v>178</v>
       </c>
     </row>
     <row r="214">
@@ -26252,7 +26252,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>213</v>
       </c>
       <c r="AG214" t="n">
-        <v>902</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="215">
@@ -26373,7 +26373,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>214</v>
       </c>
       <c r="AG215" t="n">
-        <v>1156</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="216">
@@ -26494,7 +26494,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>471</v>
+        <v>214</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>215</v>
       </c>
       <c r="AG216" t="n">
-        <v>2791</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="217">
@@ -26615,7 +26615,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>216</v>
       </c>
       <c r="AG217" t="n">
-        <v>3973</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="218">
@@ -26736,7 +26736,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>217</v>
       </c>
       <c r="AG218" t="n">
-        <v>1111</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="219">
@@ -26857,7 +26857,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>218</v>
       </c>
       <c r="AG219" t="n">
-        <v>5015</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="220">
@@ -26978,7 +26978,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>219</v>
       </c>
       <c r="AG220" t="n">
-        <v>834</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="221">
@@ -27099,7 +27099,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>464</v>
+        <v>219</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>220</v>
       </c>
       <c r="AG221" t="n">
-        <v>6722</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="222">
@@ -27220,7 +27220,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>221</v>
       </c>
       <c r="AG222" t="n">
-        <v>2791</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="223">
@@ -27341,7 +27341,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>222</v>
       </c>
       <c r="AG223" t="n">
-        <v>3793</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="224">
@@ -27462,7 +27462,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>223</v>
       </c>
       <c r="AG224" t="n">
-        <v>1059</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="225">
@@ -27583,7 +27583,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>224</v>
       </c>
       <c r="AG225" t="n">
-        <v>3439</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="226">
@@ -27704,7 +27704,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>225</v>
       </c>
       <c r="AG226" t="n">
-        <v>6226</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="227">
@@ -27825,7 +27825,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>226</v>
       </c>
       <c r="AG227" t="n">
-        <v>4324</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="228">
@@ -27946,7 +27946,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>433</v>
+        <v>226</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>227</v>
       </c>
       <c r="AG228" t="n">
-        <v>250</v>
+        <v>178</v>
       </c>
     </row>
     <row r="229">
@@ -28067,7 +28067,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>422</v>
+        <v>227</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>228</v>
       </c>
       <c r="AG229" t="n">
-        <v>2791</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="230">
@@ -28188,7 +28188,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>472</v>
+        <v>228</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>229</v>
       </c>
       <c r="AG230" t="n">
-        <v>6236</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="231">
@@ -28309,7 +28309,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>230</v>
       </c>
       <c r="AG231" t="n">
-        <v>6224</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="232">
@@ -28430,7 +28430,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>231</v>
       </c>
       <c r="AG232" t="n">
-        <v>3315</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="233">
@@ -28551,7 +28551,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>232</v>
       </c>
       <c r="AG233" t="n">
-        <v>918</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="234">
@@ -28672,7 +28672,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>233</v>
       </c>
       <c r="AG234" t="n">
-        <v>883</v>
+        <v>942</v>
       </c>
     </row>
     <row r="235">
@@ -28793,7 +28793,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>234</v>
       </c>
       <c r="AG235" t="n">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="236">
@@ -28914,7 +28914,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>235</v>
       </c>
       <c r="AG236" t="n">
-        <v>6241</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="237">
@@ -29035,7 +29035,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>236</v>
       </c>
       <c r="AG237" t="n">
-        <v>958</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="238">
@@ -29156,7 +29156,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>327</v>
+        <v>236</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>237</v>
       </c>
       <c r="AG238" t="n">
-        <v>3410</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="239">
@@ -29277,7 +29277,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>238</v>
       </c>
       <c r="AG239" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -29398,7 +29398,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>239</v>
       </c>
       <c r="AG240" t="n">
-        <v>3635</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="241">
@@ -29519,7 +29519,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>240</v>
       </c>
       <c r="AG241" t="n">
-        <v>833</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="242">
@@ -29640,7 +29640,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>241</v>
       </c>
       <c r="AG242" t="n">
-        <v>3002</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="243">
@@ -29761,7 +29761,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>242</v>
       </c>
       <c r="AG243" t="n">
-        <v>3410</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="244">
@@ -29882,7 +29882,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>243</v>
       </c>
       <c r="AG244" t="n">
-        <v>798</v>
+        <v>607</v>
       </c>
     </row>
     <row r="245">
@@ -30003,7 +30003,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>349</v>
+        <v>243</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>244</v>
       </c>
       <c r="AG245" t="n">
-        <v>1888</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="246">
@@ -30124,7 +30124,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>245</v>
       </c>
       <c r="AG246" t="n">
-        <v>1832</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="247">
@@ -30245,7 +30245,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>470</v>
+        <v>245</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -30358,7 +30358,7 @@
         <v>246</v>
       </c>
       <c r="AG247" t="n">
-        <v>3414</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="248">
@@ -30366,7 +30366,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>414</v>
+        <v>246</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>247</v>
       </c>
       <c r="AG248" t="n">
-        <v>4750</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="249">
@@ -30487,7 +30487,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>248</v>
       </c>
       <c r="AG249" t="n">
-        <v>1043</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="250">
@@ -30608,7 +30608,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>249</v>
       </c>
       <c r="AG250" t="n">
-        <v>6383</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="251">
@@ -30729,7 +30729,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>250</v>
       </c>
       <c r="AG251" t="n">
-        <v>2791</v>
+        <v>942</v>
       </c>
     </row>
     <row r="252">
@@ -30850,7 +30850,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>413</v>
+        <v>250</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>251</v>
       </c>
       <c r="AG252" t="n">
-        <v>6378</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="253">
@@ -30971,7 +30971,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -31084,7 +31084,7 @@
         <v>252</v>
       </c>
       <c r="AG253" t="n">
-        <v>1835</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="254">
@@ -31092,7 +31092,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>253</v>
       </c>
       <c r="AG254" t="n">
-        <v>6148</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="255">
@@ -31213,7 +31213,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>254</v>
       </c>
       <c r="AG255" t="n">
-        <v>2791</v>
+        <v>837</v>
       </c>
     </row>
     <row r="256">
@@ -31334,7 +31334,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>474</v>
+        <v>254</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>255</v>
       </c>
       <c r="AG256" t="n">
-        <v>6225</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="257">
@@ -31455,7 +31455,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>256</v>
       </c>
       <c r="AG257" t="n">
-        <v>3432</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="258">
@@ -31576,7 +31576,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>257</v>
       </c>
       <c r="AG258" t="n">
-        <v>739</v>
+        <v>942</v>
       </c>
     </row>
     <row r="259">
@@ -31697,7 +31697,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>258</v>
       </c>
       <c r="AG259" t="n">
-        <v>793</v>
+        <v>908</v>
       </c>
     </row>
     <row r="260">
@@ -31818,7 +31818,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>406</v>
+        <v>258</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -31931,7 +31931,7 @@
         <v>259</v>
       </c>
       <c r="AG260" t="n">
-        <v>5172</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="261">
@@ -31939,7 +31939,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>384</v>
+        <v>259</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -32052,7 +32052,7 @@
         <v>260</v>
       </c>
       <c r="AG261" t="n">
-        <v>1103</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="262">
@@ -32060,7 +32060,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>261</v>
       </c>
       <c r="AG262" t="n">
-        <v>1774</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="263">
@@ -32181,7 +32181,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>262</v>
       </c>
       <c r="AG263" t="n">
-        <v>1203</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="264">
@@ -32302,7 +32302,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>263</v>
       </c>
       <c r="AG264" t="n">
-        <v>910</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="265">
@@ -32423,7 +32423,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>264</v>
       </c>
       <c r="AG265" t="n">
-        <v>1258</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="266">
@@ -32544,7 +32544,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>265</v>
       </c>
       <c r="AG266" t="n">
-        <v>2791</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="267">
@@ -32665,7 +32665,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>426</v>
+        <v>265</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>266</v>
       </c>
       <c r="AG267" t="n">
-        <v>805</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="268">
@@ -32786,7 +32786,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>267</v>
       </c>
       <c r="AG268" t="n">
-        <v>5236</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="269">
@@ -32907,7 +32907,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>268</v>
       </c>
       <c r="AG269" t="n">
-        <v>2791</v>
+        <v>942</v>
       </c>
     </row>
     <row r="270">
@@ -33028,7 +33028,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -33141,7 +33141,7 @@
         <v>269</v>
       </c>
       <c r="AG270" t="n">
-        <v>898</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="271">
@@ -33149,7 +33149,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>270</v>
       </c>
       <c r="AG271" t="n">
-        <v>787</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="272">
@@ -33270,7 +33270,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>271</v>
       </c>
       <c r="AG272" t="n">
-        <v>5822</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="273">
@@ -33391,7 +33391,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>272</v>
       </c>
       <c r="AG273" t="n">
-        <v>11958</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="274">
@@ -33512,7 +33512,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -33625,7 +33625,7 @@
         <v>273</v>
       </c>
       <c r="AG274" t="n">
-        <v>1293</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="275">
@@ -33633,7 +33633,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>274</v>
       </c>
       <c r="AG275" t="n">
-        <v>5738</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="276">
@@ -33754,7 +33754,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>444</v>
+        <v>274</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>275</v>
       </c>
       <c r="AG276" t="n">
-        <v>5384</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="277">
@@ -33875,7 +33875,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -33988,7 +33988,7 @@
         <v>276</v>
       </c>
       <c r="AG277" t="n">
-        <v>5813</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="278">
@@ -33996,7 +33996,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -34109,7 +34109,7 @@
         <v>277</v>
       </c>
       <c r="AG278" t="n">
-        <v>735</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="279">
@@ -34117,7 +34117,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>278</v>
       </c>
       <c r="AG279" t="n">
-        <v>2791</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="280">
@@ -34238,7 +34238,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>279</v>
       </c>
       <c r="AG280" t="n">
-        <v>12406</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="281">
@@ -34359,7 +34359,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>280</v>
       </c>
       <c r="AG281" t="n">
-        <v>764</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="282">
@@ -34480,7 +34480,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>398</v>
+        <v>280</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>281</v>
       </c>
       <c r="AG282" t="n">
-        <v>3313</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="283">
@@ -34601,7 +34601,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>441</v>
+        <v>281</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>282</v>
       </c>
       <c r="AG283" t="n">
-        <v>1070</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="284">
@@ -34722,7 +34722,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>283</v>
       </c>
       <c r="AG284" t="n">
-        <v>653</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="285">
@@ -34843,7 +34843,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>284</v>
       </c>
       <c r="AG285" t="n">
-        <v>1126</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="286">
@@ -34964,7 +34964,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -35077,7 +35077,7 @@
         <v>285</v>
       </c>
       <c r="AG286" t="n">
-        <v>2791</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="287">
@@ -35085,7 +35085,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>432</v>
+        <v>285</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -35198,7 +35198,7 @@
         <v>286</v>
       </c>
       <c r="AG287" t="n">
-        <v>3417</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="288">
@@ -35206,7 +35206,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>287</v>
       </c>
       <c r="AG288" t="n">
-        <v>765</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="289">
@@ -35327,7 +35327,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>288</v>
       </c>
       <c r="AG289" t="n">
-        <v>2791</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="290">
@@ -35448,7 +35448,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>289</v>
       </c>
       <c r="AG290" t="n">
-        <v>6615</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="291">
@@ -35569,7 +35569,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>290</v>
       </c>
       <c r="AG291" t="n">
-        <v>2791</v>
+        <v>942</v>
       </c>
     </row>
     <row r="292">
@@ -35690,7 +35690,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>291</v>
       </c>
       <c r="AG292" t="n">
-        <v>2791</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="293">
@@ -35811,7 +35811,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>292</v>
       </c>
       <c r="AG293" t="n">
-        <v>1433</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="294">
@@ -35932,7 +35932,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>435</v>
+        <v>292</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>293</v>
       </c>
       <c r="AG294" t="n">
-        <v>4570</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="295">
@@ -36053,7 +36053,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -36166,7 +36166,7 @@
         <v>294</v>
       </c>
       <c r="AG295" t="n">
-        <v>1505</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="296">
@@ -36174,7 +36174,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>295</v>
       </c>
       <c r="AG296" t="n">
-        <v>1011</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="297">
@@ -36295,7 +36295,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>296</v>
       </c>
       <c r="AG297" t="n">
-        <v>6195</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="298">
@@ -36416,7 +36416,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>473</v>
+        <v>296</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>297</v>
       </c>
       <c r="AG298" t="n">
-        <v>4450</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="299">
@@ -36537,7 +36537,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>298</v>
       </c>
       <c r="AG299" t="n">
-        <v>5799</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="300">
@@ -36658,7 +36658,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -36771,7 +36771,7 @@
         <v>299</v>
       </c>
       <c r="AG300" t="n">
-        <v>12337</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="301">
@@ -36779,7 +36779,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>438</v>
+        <v>299</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -36892,7 +36892,7 @@
         <v>300</v>
       </c>
       <c r="AG301" t="n">
-        <v>5035</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="302">
@@ -36900,7 +36900,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -37013,7 +37013,7 @@
         <v>301</v>
       </c>
       <c r="AG302" t="n">
-        <v>6066</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="303">
@@ -37021,7 +37021,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>419</v>
+        <v>301</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -37134,7 +37134,7 @@
         <v>302</v>
       </c>
       <c r="AG303" t="n">
-        <v>842</v>
+        <v>942</v>
       </c>
     </row>
     <row r="304">
@@ -37142,7 +37142,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>118</v>
+        <v>302</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>303</v>
       </c>
       <c r="AG304" t="n">
-        <v>1382</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="305">
@@ -37263,7 +37263,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>304</v>
       </c>
       <c r="AG305" t="n">
-        <v>2791</v>
+        <v>607</v>
       </c>
     </row>
     <row r="306">
@@ -37384,7 +37384,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>305</v>
       </c>
       <c r="AG306" t="n">
-        <v>818</v>
+        <v>908</v>
       </c>
     </row>
     <row r="307">
@@ -37505,7 +37505,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>306</v>
       </c>
       <c r="AG307" t="n">
-        <v>1301</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="308">
@@ -37626,7 +37626,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>307</v>
       </c>
       <c r="AG308" t="n">
-        <v>1859</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="309">
@@ -37747,7 +37747,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>308</v>
       </c>
       <c r="AG309" t="n">
-        <v>659</v>
+        <v>607</v>
       </c>
     </row>
     <row r="310">
@@ -37868,7 +37868,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>420</v>
+        <v>308</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>309</v>
       </c>
       <c r="AG310" t="n">
-        <v>2185</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="311">
@@ -37989,7 +37989,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>310</v>
       </c>
       <c r="AG311" t="n">
-        <v>2198</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="312">
@@ -38110,7 +38110,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -38223,7 +38223,7 @@
         <v>311</v>
       </c>
       <c r="AG312" t="n">
-        <v>5740</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="313">
@@ -38231,7 +38231,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -38344,7 +38344,7 @@
         <v>312</v>
       </c>
       <c r="AG313" t="n">
-        <v>713</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="314">
@@ -38352,7 +38352,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>313</v>
       </c>
       <c r="AG314" t="n">
-        <v>5830</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="315">
@@ -38473,7 +38473,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>314</v>
       </c>
       <c r="AG315" t="n">
-        <v>5848</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="316">
@@ -38594,7 +38594,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>315</v>
       </c>
       <c r="AG316" t="n">
-        <v>6491</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="317">
@@ -38715,7 +38715,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -38828,7 +38828,7 @@
         <v>316</v>
       </c>
       <c r="AG317" t="n">
-        <v>4444</v>
+        <v>942</v>
       </c>
     </row>
     <row r="318">
@@ -38836,7 +38836,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>429</v>
+        <v>316</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>317</v>
       </c>
       <c r="AG318" t="n">
-        <v>10885</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="319">
@@ -38957,7 +38957,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -39070,7 +39070,7 @@
         <v>318</v>
       </c>
       <c r="AG319" t="n">
-        <v>2791</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="320">
@@ -39078,7 +39078,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -39191,7 +39191,7 @@
         <v>319</v>
       </c>
       <c r="AG320" t="n">
-        <v>852</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="321">
@@ -39199,7 +39199,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>320</v>
       </c>
       <c r="AG321" t="n">
-        <v>3752</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="322">
@@ -39320,7 +39320,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -39433,7 +39433,7 @@
         <v>321</v>
       </c>
       <c r="AG322" t="n">
-        <v>3478</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="323">
@@ -39441,7 +39441,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -39554,7 +39554,7 @@
         <v>322</v>
       </c>
       <c r="AG323" t="n">
-        <v>3522</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="324">
@@ -39562,7 +39562,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>323</v>
       </c>
       <c r="AG324" t="n">
-        <v>6892</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="325">
@@ -39683,7 +39683,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>324</v>
       </c>
       <c r="AG325" t="n">
-        <v>2791</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="326">
@@ -39804,7 +39804,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -39917,7 +39917,7 @@
         <v>325</v>
       </c>
       <c r="AG326" t="n">
-        <v>6151</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="327">
@@ -39925,7 +39925,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -40038,7 +40038,7 @@
         <v>326</v>
       </c>
       <c r="AG327" t="n">
-        <v>943</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="328">
@@ -40046,7 +40046,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -40159,7 +40159,7 @@
         <v>327</v>
       </c>
       <c r="AG328" t="n">
-        <v>840</v>
+        <v>908</v>
       </c>
     </row>
     <row r="329">
@@ -40167,7 +40167,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>179</v>
+        <v>327</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>328</v>
       </c>
       <c r="AG329" t="n">
-        <v>6636</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="330">
@@ -40288,7 +40288,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>329</v>
       </c>
       <c r="AG330" t="n">
-        <v>957</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="331">
@@ -40409,7 +40409,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -40522,7 +40522,7 @@
         <v>330</v>
       </c>
       <c r="AG331" t="n">
-        <v>2791</v>
+        <v>942</v>
       </c>
     </row>
     <row r="332">
@@ -40530,7 +40530,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -40643,7 +40643,7 @@
         <v>331</v>
       </c>
       <c r="AG332" t="n">
-        <v>940</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="333">
@@ -40651,7 +40651,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -40764,7 +40764,7 @@
         <v>332</v>
       </c>
       <c r="AG333" t="n">
-        <v>6712</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="334">
@@ -40772,7 +40772,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>333</v>
       </c>
       <c r="AG334" t="n">
-        <v>5812</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="335">
@@ -40893,7 +40893,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>430</v>
+        <v>333</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>334</v>
       </c>
       <c r="AG335" t="n">
-        <v>5713</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="336">
@@ -41014,7 +41014,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -41127,7 +41127,7 @@
         <v>335</v>
       </c>
       <c r="AG336" t="n">
-        <v>997</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="337">
@@ -41135,7 +41135,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -41248,7 +41248,7 @@
         <v>336</v>
       </c>
       <c r="AG337" t="n">
-        <v>1941</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="338">
@@ -41256,7 +41256,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>337</v>
       </c>
       <c r="AG338" t="n">
-        <v>6900</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="339">
@@ -41377,7 +41377,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>122</v>
+        <v>337</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>338</v>
       </c>
       <c r="AG339" t="n">
-        <v>880</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="340">
@@ -41498,7 +41498,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -41611,7 +41611,7 @@
         <v>339</v>
       </c>
       <c r="AG340" t="n">
-        <v>898</v>
+        <v>947</v>
       </c>
     </row>
     <row r="341">
@@ -41619,7 +41619,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>340</v>
       </c>
       <c r="AG341" t="n">
-        <v>852</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="342">
@@ -41740,7 +41740,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>341</v>
       </c>
       <c r="AG342" t="n">
-        <v>1159</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="343">
@@ -41861,7 +41861,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -41974,7 +41974,7 @@
         <v>342</v>
       </c>
       <c r="AG343" t="n">
-        <v>2791</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="344">
@@ -41982,7 +41982,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -42095,7 +42095,7 @@
         <v>343</v>
       </c>
       <c r="AG344" t="n">
-        <v>6884</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="345">
@@ -42103,7 +42103,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>344</v>
       </c>
       <c r="AG345" t="n">
-        <v>10918</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="346">
@@ -42224,7 +42224,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -42337,7 +42337,7 @@
         <v>345</v>
       </c>
       <c r="AG346" t="n">
-        <v>2791</v>
+        <v>947</v>
       </c>
     </row>
     <row r="347">
@@ -42345,7 +42345,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>346</v>
       </c>
       <c r="AG347" t="n">
-        <v>811</v>
+        <v>837</v>
       </c>
     </row>
     <row r="348">
@@ -42466,7 +42466,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>347</v>
       </c>
       <c r="AG348" t="n">
-        <v>3502</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="349">
@@ -42587,7 +42587,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -42700,7 +42700,7 @@
         <v>348</v>
       </c>
       <c r="AG349" t="n">
-        <v>12172</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="350">
@@ -42708,7 +42708,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -42821,7 +42821,7 @@
         <v>349</v>
       </c>
       <c r="AG350" t="n">
-        <v>2139</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="351">
@@ -42829,7 +42829,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>455</v>
+        <v>349</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>350</v>
       </c>
       <c r="AG351" t="n">
-        <v>4944</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="352">
@@ -42950,7 +42950,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>421</v>
+        <v>350</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>351</v>
       </c>
       <c r="AG352" t="n">
-        <v>4190</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="353">
@@ -43071,7 +43071,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -43184,7 +43184,7 @@
         <v>352</v>
       </c>
       <c r="AG353" t="n">
-        <v>7058</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="354">
@@ -43192,7 +43192,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>475</v>
+        <v>352</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -43305,7 +43305,7 @@
         <v>353</v>
       </c>
       <c r="AG354" t="n">
-        <v>2791</v>
+        <v>942</v>
       </c>
     </row>
     <row r="355">
@@ -43313,7 +43313,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>163</v>
+        <v>353</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>354</v>
       </c>
       <c r="AG355" t="n">
-        <v>760</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="356">
@@ -43434,7 +43434,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -43547,7 +43547,7 @@
         <v>355</v>
       </c>
       <c r="AG356" t="n">
-        <v>773</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="357">
@@ -43555,7 +43555,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -43668,7 +43668,7 @@
         <v>356</v>
       </c>
       <c r="AG357" t="n">
-        <v>1476</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="358">
@@ -43676,7 +43676,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>221</v>
+        <v>356</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -43789,7 +43789,7 @@
         <v>357</v>
       </c>
       <c r="AG358" t="n">
-        <v>742</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="359">
@@ -43797,7 +43797,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>358</v>
       </c>
       <c r="AG359" t="n">
-        <v>762</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="360">
@@ -43918,7 +43918,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>359</v>
       </c>
       <c r="AG360" t="n">
-        <v>3580</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="361">
@@ -44039,7 +44039,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>247</v>
+        <v>359</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -44152,7 +44152,7 @@
         <v>360</v>
       </c>
       <c r="AG361" t="n">
-        <v>6336</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="362">
@@ -44160,7 +44160,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>361</v>
       </c>
       <c r="AG362" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="363">
@@ -44281,7 +44281,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>362</v>
       </c>
       <c r="AG363" t="n">
-        <v>2237</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="364">
@@ -44402,7 +44402,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>48</v>
+        <v>362</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         <v>363</v>
       </c>
       <c r="AG364" t="n">
-        <v>2791</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="365">
@@ -44523,7 +44523,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>224</v>
+        <v>363</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -44636,7 +44636,7 @@
         <v>364</v>
       </c>
       <c r="AG365" t="n">
-        <v>861</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="366">
@@ -44644,7 +44644,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>365</v>
       </c>
       <c r="AG366" t="n">
-        <v>2791</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="367">
@@ -44765,7 +44765,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -44878,7 +44878,7 @@
         <v>366</v>
       </c>
       <c r="AG367" t="n">
-        <v>744</v>
+        <v>942</v>
       </c>
     </row>
     <row r="368">
@@ -44886,7 +44886,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -44999,7 +44999,7 @@
         <v>367</v>
       </c>
       <c r="AG368" t="n">
-        <v>2059</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="369">
@@ -45007,7 +45007,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>461</v>
+        <v>367</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -45120,7 +45120,7 @@
         <v>368</v>
       </c>
       <c r="AG369" t="n">
-        <v>661</v>
+        <v>942</v>
       </c>
     </row>
     <row r="370">
@@ -45128,7 +45128,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>369</v>
       </c>
       <c r="AG370" t="n">
-        <v>875</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="371">
@@ -45249,7 +45249,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -45362,7 +45362,7 @@
         <v>370</v>
       </c>
       <c r="AG371" t="n">
-        <v>2791</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="372">
@@ -45370,7 +45370,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>371</v>
       </c>
       <c r="AG372" t="n">
-        <v>1102</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="373">
@@ -45491,7 +45491,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -45604,7 +45604,7 @@
         <v>372</v>
       </c>
       <c r="AG373" t="n">
-        <v>5738</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="374">
@@ -45612,7 +45612,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>447</v>
+        <v>372</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>373</v>
       </c>
       <c r="AG374" t="n">
-        <v>2232</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="375">
@@ -45733,7 +45733,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>374</v>
       </c>
       <c r="AG375" t="n">
-        <v>2791</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="376">
@@ -45854,7 +45854,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -45967,7 +45967,7 @@
         <v>375</v>
       </c>
       <c r="AG376" t="n">
-        <v>875</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="377">
@@ -45975,7 +45975,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>159</v>
+        <v>375</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>376</v>
       </c>
       <c r="AG377" t="n">
-        <v>3210</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="378">
@@ -46096,7 +46096,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>203</v>
+        <v>376</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>377</v>
       </c>
       <c r="AG378" t="n">
-        <v>817</v>
+        <v>908</v>
       </c>
     </row>
     <row r="379">
@@ -46217,7 +46217,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>476</v>
+        <v>377</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -46330,7 +46330,7 @@
         <v>378</v>
       </c>
       <c r="AG379" t="n">
-        <v>3762</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="380">
@@ -46338,7 +46338,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>87</v>
+        <v>378</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>379</v>
       </c>
       <c r="AG380" t="n">
-        <v>1101</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="381">
@@ -46459,7 +46459,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>209</v>
+        <v>379</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>380</v>
       </c>
       <c r="AG381" t="n">
-        <v>6337</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="382">
@@ -46580,7 +46580,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>381</v>
       </c>
       <c r="AG382" t="n">
-        <v>12242</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="383">
@@ -46701,7 +46701,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>453</v>
+        <v>381</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>382</v>
       </c>
       <c r="AG383" t="n">
-        <v>2210</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="384">
@@ -46822,7 +46822,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -46935,7 +46935,7 @@
         <v>383</v>
       </c>
       <c r="AG384" t="n">
-        <v>660</v>
+        <v>942</v>
       </c>
     </row>
     <row r="385">
@@ -46943,7 +46943,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -47056,7 +47056,7 @@
         <v>384</v>
       </c>
       <c r="AG385" t="n">
-        <v>817</v>
+        <v>908</v>
       </c>
     </row>
     <row r="386">
@@ -47064,7 +47064,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>456</v>
+        <v>384</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>385</v>
       </c>
       <c r="AG386" t="n">
-        <v>836</v>
+        <v>908</v>
       </c>
     </row>
     <row r="387">
@@ -47185,7 +47185,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -47298,7 +47298,7 @@
         <v>386</v>
       </c>
       <c r="AG387" t="n">
-        <v>847</v>
+        <v>908</v>
       </c>
     </row>
     <row r="388">
@@ -47306,7 +47306,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>387</v>
       </c>
       <c r="AG388" t="n">
-        <v>1822</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="389">
@@ -47427,7 +47427,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -47540,7 +47540,7 @@
         <v>388</v>
       </c>
       <c r="AG389" t="n">
-        <v>3712</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="390">
@@ -47548,7 +47548,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>249</v>
+        <v>388</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -47661,7 +47661,7 @@
         <v>389</v>
       </c>
       <c r="AG390" t="n">
-        <v>925</v>
+        <v>947</v>
       </c>
     </row>
     <row r="391">
@@ -47669,7 +47669,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>101</v>
+        <v>389</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -47782,7 +47782,7 @@
         <v>390</v>
       </c>
       <c r="AG391" t="n">
-        <v>5648</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="392">
@@ -47790,7 +47790,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>391</v>
       </c>
       <c r="AG392" t="n">
-        <v>2870</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="393">
@@ -47911,7 +47911,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>392</v>
       </c>
       <c r="AG393" t="n">
-        <v>3528</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="394">
@@ -48032,7 +48032,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -48145,7 +48145,7 @@
         <v>393</v>
       </c>
       <c r="AG394" t="n">
-        <v>876</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="395">
@@ -48153,7 +48153,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>394</v>
       </c>
       <c r="AG395" t="n">
-        <v>925</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="396">
@@ -48274,7 +48274,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -48387,7 +48387,7 @@
         <v>395</v>
       </c>
       <c r="AG396" t="n">
-        <v>825</v>
+        <v>947</v>
       </c>
     </row>
     <row r="397">
@@ -48395,7 +48395,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>396</v>
       </c>
       <c r="AG397" t="n">
-        <v>5290</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="398">
@@ -48516,7 +48516,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -48629,7 +48629,7 @@
         <v>397</v>
       </c>
       <c r="AG398" t="n">
-        <v>785</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="399">
@@ -48637,7 +48637,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>248</v>
+        <v>397</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -48750,7 +48750,7 @@
         <v>398</v>
       </c>
       <c r="AG399" t="n">
-        <v>2207</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="400">
@@ -48758,7 +48758,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -48871,7 +48871,7 @@
         <v>399</v>
       </c>
       <c r="AG400" t="n">
-        <v>822</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="401">
@@ -48879,7 +48879,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>261</v>
+        <v>399</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -48992,7 +48992,7 @@
         <v>400</v>
       </c>
       <c r="AG401" t="n">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="402">
@@ -49000,7 +49000,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>401</v>
       </c>
       <c r="AG402" t="n">
-        <v>2791</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="403">
@@ -49121,7 +49121,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>402</v>
       </c>
       <c r="AG403" t="n">
-        <v>6165</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="404">
@@ -49242,7 +49242,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>236</v>
+        <v>402</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -49355,7 +49355,7 @@
         <v>403</v>
       </c>
       <c r="AG404" t="n">
-        <v>1985</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="405">
@@ -49363,7 +49363,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -49476,7 +49476,7 @@
         <v>404</v>
       </c>
       <c r="AG405" t="n">
-        <v>2791</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="406">
@@ -49484,7 +49484,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>305</v>
+        <v>404</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -49597,7 +49597,7 @@
         <v>405</v>
       </c>
       <c r="AG406" t="n">
-        <v>2137</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="407">
@@ -49605,7 +49605,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -49718,7 +49718,7 @@
         <v>406</v>
       </c>
       <c r="AG407" t="n">
-        <v>785</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="408">
@@ -49726,7 +49726,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -49839,7 +49839,7 @@
         <v>407</v>
       </c>
       <c r="AG408" t="n">
-        <v>1657</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="409">
@@ -49847,7 +49847,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -49960,7 +49960,7 @@
         <v>408</v>
       </c>
       <c r="AG409" t="n">
-        <v>2791</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="410">
@@ -49968,7 +49968,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>245</v>
+        <v>408</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -50081,7 +50081,7 @@
         <v>409</v>
       </c>
       <c r="AG410" t="n">
-        <v>7831</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="411">
@@ -50089,7 +50089,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>309</v>
+        <v>409</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>410</v>
       </c>
       <c r="AG411" t="n">
-        <v>1109</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="412">
@@ -50210,7 +50210,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -50323,7 +50323,7 @@
         <v>411</v>
       </c>
       <c r="AG412" t="n">
-        <v>6791</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="413">
@@ -50331,7 +50331,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -50444,7 +50444,7 @@
         <v>412</v>
       </c>
       <c r="AG413" t="n">
-        <v>904</v>
+        <v>947</v>
       </c>
     </row>
     <row r="414">
@@ -50452,7 +50452,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -50565,7 +50565,7 @@
         <v>413</v>
       </c>
       <c r="AG414" t="n">
-        <v>7583</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="415">
@@ -50573,7 +50573,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>291</v>
+        <v>413</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -50686,7 +50686,7 @@
         <v>414</v>
       </c>
       <c r="AG415" t="n">
-        <v>7658</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="416">
@@ -50694,7 +50694,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -50807,7 +50807,7 @@
         <v>415</v>
       </c>
       <c r="AG416" t="n">
-        <v>773</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="417">
@@ -50815,7 +50815,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>158</v>
+        <v>415</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>416</v>
       </c>
       <c r="AG417" t="n">
-        <v>5424</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="418">
@@ -50936,7 +50936,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>417</v>
       </c>
       <c r="AG418" t="n">
-        <v>3997</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="419">
@@ -51057,7 +51057,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -51170,7 +51170,7 @@
         <v>418</v>
       </c>
       <c r="AG419" t="n">
-        <v>3734</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="420">
@@ -51178,7 +51178,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -51291,7 +51291,7 @@
         <v>419</v>
       </c>
       <c r="AG420" t="n">
-        <v>2791</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="421">
@@ -51299,7 +51299,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -51412,7 +51412,7 @@
         <v>420</v>
       </c>
       <c r="AG421" t="n">
-        <v>3027</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="422">
@@ -51420,7 +51420,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>421</v>
       </c>
       <c r="AG422" t="n">
-        <v>6638</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="423">
@@ -51541,7 +51541,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -51654,7 +51654,7 @@
         <v>422</v>
       </c>
       <c r="AG423" t="n">
-        <v>775</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="424">
@@ -51662,7 +51662,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -51775,7 +51775,7 @@
         <v>423</v>
       </c>
       <c r="AG424" t="n">
-        <v>784</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="425">
@@ -51783,7 +51783,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -51896,7 +51896,7 @@
         <v>424</v>
       </c>
       <c r="AG425" t="n">
-        <v>1990</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="426">
@@ -51904,7 +51904,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -52017,7 +52017,7 @@
         <v>425</v>
       </c>
       <c r="AG426" t="n">
-        <v>786</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="427">
@@ -52025,7 +52025,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -52138,7 +52138,7 @@
         <v>426</v>
       </c>
       <c r="AG427" t="n">
-        <v>1087</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="428">
@@ -52146,7 +52146,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>427</v>
       </c>
       <c r="AG428" t="n">
-        <v>6885</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="429">
@@ -52267,7 +52267,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>311</v>
+        <v>427</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -52380,7 +52380,7 @@
         <v>428</v>
       </c>
       <c r="AG429" t="n">
-        <v>6535</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="430">
@@ -52388,7 +52388,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>263</v>
+        <v>428</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -52501,7 +52501,7 @@
         <v>429</v>
       </c>
       <c r="AG430" t="n">
-        <v>3922</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="431">
@@ -52509,7 +52509,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>332</v>
+        <v>429</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -52622,7 +52622,7 @@
         <v>430</v>
       </c>
       <c r="AG431" t="n">
-        <v>6890</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="432">
@@ -52630,7 +52630,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -52743,7 +52743,7 @@
         <v>431</v>
       </c>
       <c r="AG432" t="n">
-        <v>742</v>
+        <v>942</v>
       </c>
     </row>
     <row r="433">
@@ -52751,7 +52751,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -52864,7 +52864,7 @@
         <v>432</v>
       </c>
       <c r="AG433" t="n">
-        <v>838</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="434">
@@ -52872,7 +52872,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -52985,7 +52985,7 @@
         <v>433</v>
       </c>
       <c r="AG434" t="n">
-        <v>863</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="435">
@@ -52993,7 +52993,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         <v>434</v>
       </c>
       <c r="AG435" t="n">
-        <v>5042</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="436">
@@ -53114,7 +53114,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>306</v>
+        <v>434</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         <v>435</v>
       </c>
       <c r="AG436" t="n">
-        <v>2791</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="437">
@@ -53235,7 +53235,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -53348,7 +53348,7 @@
         <v>436</v>
       </c>
       <c r="AG437" t="n">
-        <v>5199</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="438">
@@ -53356,7 +53356,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>437</v>
       </c>
       <c r="AG438" t="n">
-        <v>2791</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="439">
@@ -53477,7 +53477,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>279</v>
+        <v>437</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -53590,7 +53590,7 @@
         <v>438</v>
       </c>
       <c r="AG439" t="n">
-        <v>2141</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="440">
@@ -53598,7 +53598,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>283</v>
+        <v>438</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>439</v>
       </c>
       <c r="AG440" t="n">
-        <v>1717</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="441">
@@ -53719,7 +53719,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>239</v>
+        <v>439</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -53832,7 +53832,7 @@
         <v>440</v>
       </c>
       <c r="AG441" t="n">
-        <v>3902</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="442">
@@ -53840,7 +53840,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -53953,7 +53953,7 @@
         <v>441</v>
       </c>
       <c r="AG442" t="n">
-        <v>2791</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="443">
@@ -53961,7 +53961,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>442</v>
       </c>
       <c r="AG443" t="n">
-        <v>786</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="444">
@@ -54195,7 +54195,7 @@
         <v>443</v>
       </c>
       <c r="AG444" t="n">
-        <v>8056</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="445">
@@ -54203,7 +54203,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -54316,7 +54316,7 @@
         <v>444</v>
       </c>
       <c r="AG445" t="n">
-        <v>5199</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="446">
@@ -54324,7 +54324,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -54437,7 +54437,7 @@
         <v>445</v>
       </c>
       <c r="AG446" t="n">
-        <v>6051</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="447">
@@ -54445,7 +54445,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>348</v>
+        <v>445</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -54558,7 +54558,7 @@
         <v>446</v>
       </c>
       <c r="AG447" t="n">
-        <v>1984</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="448">
@@ -54566,7 +54566,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -54679,7 +54679,7 @@
         <v>447</v>
       </c>
       <c r="AG448" t="n">
-        <v>5160</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="449">
@@ -54687,7 +54687,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>220</v>
+        <v>447</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -54800,7 +54800,7 @@
         <v>448</v>
       </c>
       <c r="AG449" t="n">
-        <v>5309</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="450">
@@ -54808,7 +54808,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>449</v>
       </c>
       <c r="AG450" t="n">
-        <v>2791</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="451">
@@ -54929,7 +54929,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -55042,7 +55042,7 @@
         <v>450</v>
       </c>
       <c r="AG451" t="n">
-        <v>5015</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="452">
@@ -55050,7 +55050,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -55163,7 +55163,7 @@
         <v>451</v>
       </c>
       <c r="AG452" t="n">
-        <v>4132</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="453">
@@ -55171,7 +55171,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>452</v>
       </c>
       <c r="AG453" t="n">
-        <v>6165</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="454">
@@ -55292,7 +55292,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -55405,7 +55405,7 @@
         <v>453</v>
       </c>
       <c r="AG454" t="n">
-        <v>2791</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="455">
@@ -55413,7 +55413,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -55526,7 +55526,7 @@
         <v>454</v>
       </c>
       <c r="AG455" t="n">
-        <v>6226</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="456">
@@ -55534,7 +55534,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>174</v>
+        <v>454</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -55647,7 +55647,7 @@
         <v>455</v>
       </c>
       <c r="AG456" t="n">
-        <v>4686</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="457">
@@ -55655,7 +55655,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>180</v>
+        <v>455</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -55768,7 +55768,7 @@
         <v>456</v>
       </c>
       <c r="AG457" t="n">
-        <v>4531</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="458">
@@ -55776,7 +55776,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>246</v>
+        <v>456</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -55889,7 +55889,7 @@
         <v>457</v>
       </c>
       <c r="AG458" t="n">
-        <v>5330</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="459">
@@ -55897,7 +55897,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -56010,7 +56010,7 @@
         <v>458</v>
       </c>
       <c r="AG459" t="n">
-        <v>2791</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="460">
@@ -56018,7 +56018,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>459</v>
       </c>
       <c r="AG460" t="n">
-        <v>7253</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="461">
@@ -56139,7 +56139,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>382</v>
+        <v>459</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -56252,7 +56252,7 @@
         <v>460</v>
       </c>
       <c r="AG461" t="n">
-        <v>7045</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="462">
@@ -56260,7 +56260,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>267</v>
+        <v>460</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -56373,7 +56373,7 @@
         <v>461</v>
       </c>
       <c r="AG462" t="n">
-        <v>2791</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="463">
@@ -56381,7 +56381,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>462</v>
       </c>
       <c r="AG463" t="n">
-        <v>5016</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="464">
@@ -56502,7 +56502,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>212</v>
+        <v>462</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -56615,7 +56615,7 @@
         <v>463</v>
       </c>
       <c r="AG464" t="n">
-        <v>5168</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="465">
@@ -56623,7 +56623,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>235</v>
+        <v>463</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>464</v>
       </c>
       <c r="AG465" t="n">
-        <v>2190</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="466">
@@ -56744,7 +56744,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -56857,7 +56857,7 @@
         <v>465</v>
       </c>
       <c r="AG466" t="n">
-        <v>921</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="467">
@@ -56865,7 +56865,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -56978,7 +56978,7 @@
         <v>466</v>
       </c>
       <c r="AG467" t="n">
-        <v>2100</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="468">
@@ -56986,7 +56986,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>269</v>
+        <v>466</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -57099,7 +57099,7 @@
         <v>467</v>
       </c>
       <c r="AG468" t="n">
-        <v>2791</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="469">
@@ -57107,7 +57107,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>181</v>
+        <v>467</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -57220,7 +57220,7 @@
         <v>468</v>
       </c>
       <c r="AG469" t="n">
-        <v>5188</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="470">
@@ -57228,7 +57228,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>381</v>
+        <v>468</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -57341,7 +57341,7 @@
         <v>469</v>
       </c>
       <c r="AG470" t="n">
-        <v>4515</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="471">
@@ -57349,7 +57349,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>378</v>
+        <v>469</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -57462,7 +57462,7 @@
         <v>470</v>
       </c>
       <c r="AG471" t="n">
-        <v>5343</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="472">
@@ -57470,7 +57470,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -57583,7 +57583,7 @@
         <v>471</v>
       </c>
       <c r="AG472" t="n">
-        <v>5314</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="473">
@@ -57591,7 +57591,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>250</v>
+        <v>471</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -57704,7 +57704,7 @@
         <v>472</v>
       </c>
       <c r="AG473" t="n">
-        <v>4984</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="474">
@@ -57712,7 +57712,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>362</v>
+        <v>472</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -57825,7 +57825,7 @@
         <v>473</v>
       </c>
       <c r="AG474" t="n">
-        <v>2791</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="475">
@@ -57833,7 +57833,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>364</v>
+        <v>473</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -57946,7 +57946,7 @@
         <v>474</v>
       </c>
       <c r="AG475" t="n">
-        <v>2971</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="476">
@@ -57954,7 +57954,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>230</v>
+        <v>474</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -58067,7 +58067,7 @@
         <v>475</v>
       </c>
       <c r="AG476" t="n">
-        <v>6629</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="477">
@@ -58075,7 +58075,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>391</v>
+        <v>475</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -58188,7 +58188,7 @@
         <v>476</v>
       </c>
       <c r="AG477" t="n">
-        <v>4983</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="478">
@@ -58196,7 +58196,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -58309,7 +58309,7 @@
         <v>477</v>
       </c>
       <c r="AG478" t="n">
-        <v>2974</v>
+        <v>3301</v>
       </c>
     </row>
   </sheetData>
